--- a/Results/Testing Results.xlsx
+++ b/Results/Testing Results.xlsx
@@ -14,102 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="18">
   <si>
-    <t>AI_Player 1</t>
+    <t>Average</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI_Player 2</t>
+    <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI_Player 3</t>
+    <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI_Player 4</t>
+    <t>3</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI_Player 5</t>
+    <t>4</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI_Player 6</t>
+    <t>5</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI_Player 7</t>
+    <t>6</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI_Player 8</t>
+    <t>7</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI_Player 9</t>
+    <t>8</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI_Player 10</t>
+    <t>9</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI_Player 11</t>
+    <t>10</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI_Player 12</t>
+    <t>11</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI_Player 13</t>
+    <t>12</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI_Player 14</t>
+    <t>13</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI_Player 15</t>
+    <t>14</t>
   </si>
   <si>
-    <t xml:space="preserve"> AI_Player 16</t>
+    <t>15</t>
   </si>
   <si>
-    <t>AI_Player 2</t>
+    <t>16</t>
   </si>
   <si>
-    <t>AI_Player 3</t>
-  </si>
-  <si>
-    <t>AI_Player 4</t>
-  </si>
-  <si>
-    <t>AI_Player 5</t>
-  </si>
-  <si>
-    <t>AI_Player 6</t>
-  </si>
-  <si>
-    <t>AI_Player 7</t>
-  </si>
-  <si>
-    <t>AI_Player 8</t>
-  </si>
-  <si>
-    <t>AI_Player 9</t>
-  </si>
-  <si>
-    <t>AI_Player 10</t>
-  </si>
-  <si>
-    <t>AI_Player 11</t>
-  </si>
-  <si>
-    <t>AI_Player 12</t>
-  </si>
-  <si>
-    <t>AI_Player 13</t>
-  </si>
-  <si>
-    <t>AI_Player 14</t>
-  </si>
-  <si>
-    <t>AI_Player 15</t>
-  </si>
-  <si>
-    <t>AI_Player 16</t>
-  </si>
-  <si>
-    <t>Average</t>
+    <t>Model #</t>
   </si>
 </sst>
 </file>
@@ -145,9 +103,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,57 +431,57 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1">
         <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -569,7 +534,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -622,7 +587,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0.6</v>
@@ -672,61 +637,64 @@
       <c r="Q4">
         <v>1</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="U4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="2">
         <v>1</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" s="3">
         <v>2</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="X4" s="3">
         <v>3</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Y4" s="3">
         <v>4</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="Z4" s="3">
         <v>5</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AA4" s="3">
         <v>6</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AB4" s="3">
         <v>7</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" s="3">
         <v>8</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AD4" s="3">
         <v>9</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AE4" s="3">
         <v>10</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AF4" s="3">
         <v>11</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AG4" s="3">
         <v>12</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AH4" s="3">
         <v>13</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AI4" s="3">
         <v>14</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AJ4" s="3">
         <v>15</v>
       </c>
-      <c r="AL4" t="s">
-        <v>31</v>
+      <c r="AK4" s="3">
+        <v>16</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -776,8 +744,8 @@
       <c r="Q5">
         <v>1</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>0</v>
+      <c r="U5" s="2">
+        <v>1</v>
       </c>
       <c r="V5">
         <f>AVERAGE(B2,B20,B38,B56,B74)</f>
@@ -843,14 +811,14 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="4">
         <f>AVERAGE(V5:AK5)</f>
         <v>0.54999999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.3</v>
@@ -900,8 +868,8 @@
       <c r="Q6">
         <v>0.5</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>16</v>
+      <c r="U6" s="2">
+        <v>2</v>
       </c>
       <c r="V6">
         <f t="shared" ref="V6:W20" si="1">AVERAGE(B3,B21,B39,B57,B75)</f>
@@ -967,14 +935,14 @@
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="4">
         <f t="shared" ref="AL6:AL20" si="2">AVERAGE(V6:AK6)</f>
         <v>0.49749999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0.3</v>
@@ -1024,8 +992,8 @@
       <c r="Q7">
         <v>0.6</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>17</v>
+      <c r="U7" s="2">
+        <v>3</v>
       </c>
       <c r="V7">
         <f t="shared" si="1"/>
@@ -1091,14 +1059,14 @@
         <f t="shared" si="0"/>
         <v>0.80000000000000016</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="4">
         <f t="shared" si="2"/>
         <v>0.55374999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1148,8 +1116,8 @@
       <c r="Q8">
         <v>0.8</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>18</v>
+      <c r="U8" s="2">
+        <v>4</v>
       </c>
       <c r="V8">
         <f t="shared" si="1"/>
@@ -1215,14 +1183,14 @@
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="4">
         <f t="shared" si="2"/>
         <v>0.45999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0.4</v>
@@ -1272,8 +1240,8 @@
       <c r="Q9">
         <v>0.8</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>19</v>
+      <c r="U9" s="2">
+        <v>5</v>
       </c>
       <c r="V9">
         <f t="shared" si="1"/>
@@ -1339,14 +1307,14 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="4">
         <f t="shared" si="2"/>
         <v>0.54249999999999987</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0.1</v>
@@ -1396,8 +1364,8 @@
       <c r="Q10">
         <v>0.6</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>20</v>
+      <c r="U10" s="2">
+        <v>6</v>
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
@@ -1463,14 +1431,14 @@
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="4">
         <f t="shared" si="2"/>
         <v>0.42249999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0.2</v>
@@ -1520,8 +1488,8 @@
       <c r="Q11">
         <v>0.7</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>21</v>
+      <c r="U11" s="2">
+        <v>7</v>
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
@@ -1587,14 +1555,14 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="4">
         <f t="shared" si="2"/>
         <v>0.4875000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0.7</v>
@@ -1644,8 +1612,8 @@
       <c r="Q12">
         <v>0.8</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>22</v>
+      <c r="U12" s="2">
+        <v>8</v>
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
@@ -1711,14 +1679,14 @@
         <f t="shared" si="0"/>
         <v>0.58000000000000007</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" s="4">
         <f t="shared" si="2"/>
         <v>0.42375000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0.4</v>
@@ -1768,8 +1736,8 @@
       <c r="Q13">
         <v>0.9</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>23</v>
+      <c r="U13" s="2">
+        <v>9</v>
       </c>
       <c r="V13">
         <f t="shared" si="1"/>
@@ -1835,14 +1803,14 @@
         <f t="shared" si="0"/>
         <v>0.82</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" s="4">
         <f t="shared" si="2"/>
         <v>0.48749999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0.1</v>
@@ -1892,8 +1860,8 @@
       <c r="Q14">
         <v>0.7</v>
       </c>
-      <c r="U14" s="1" t="s">
-        <v>24</v>
+      <c r="U14" s="2">
+        <v>10</v>
       </c>
       <c r="V14">
         <f t="shared" si="1"/>
@@ -1959,14 +1927,14 @@
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" s="4">
         <f t="shared" si="2"/>
         <v>0.43625000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0.4</v>
@@ -2016,8 +1984,8 @@
       <c r="Q15">
         <v>0.7</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>25</v>
+      <c r="U15" s="2">
+        <v>11</v>
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
@@ -2083,14 +2051,14 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" s="4">
         <f t="shared" si="2"/>
         <v>0.51750000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0.1</v>
@@ -2140,8 +2108,8 @@
       <c r="Q16">
         <v>0.7</v>
       </c>
-      <c r="U16" s="1" t="s">
-        <v>26</v>
+      <c r="U16" s="2">
+        <v>12</v>
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
@@ -2207,14 +2175,14 @@
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" s="4">
         <f t="shared" si="2"/>
         <v>0.44249999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0.3</v>
@@ -2264,8 +2232,8 @@
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>27</v>
+      <c r="U17" s="2">
+        <v>13</v>
       </c>
       <c r="V17">
         <f t="shared" si="1"/>
@@ -2331,14 +2299,14 @@
         <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
-      <c r="AL17">
+      <c r="AL17" s="4">
         <f t="shared" si="2"/>
         <v>0.50249999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="U18" s="1" t="s">
-        <v>28</v>
+      <c r="U18" s="2">
+        <v>14</v>
       </c>
       <c r="V18">
         <f t="shared" si="1"/>
@@ -2404,62 +2372,62 @@
         <f t="shared" si="0"/>
         <v>0.65999999999999992</v>
       </c>
-      <c r="AL18">
+      <c r="AL18" s="4">
         <f t="shared" si="2"/>
         <v>0.36375000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19">
         <v>4</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19">
         <v>5</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19">
         <v>6</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19">
         <v>7</v>
       </c>
-      <c r="J19" t="s">
+      <c r="I19">
         <v>8</v>
       </c>
-      <c r="K19" t="s">
+      <c r="J19">
         <v>9</v>
       </c>
-      <c r="L19" t="s">
+      <c r="K19">
         <v>10</v>
       </c>
-      <c r="M19" t="s">
+      <c r="L19">
         <v>11</v>
       </c>
-      <c r="N19" t="s">
+      <c r="M19">
         <v>12</v>
       </c>
-      <c r="O19" t="s">
+      <c r="N19">
         <v>13</v>
       </c>
-      <c r="P19" t="s">
+      <c r="O19">
         <v>14</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="P19">
         <v>15</v>
       </c>
-      <c r="U19" s="1" t="s">
-        <v>29</v>
+      <c r="Q19">
+        <v>16</v>
+      </c>
+      <c r="U19" s="2">
+        <v>15</v>
       </c>
       <c r="V19">
         <f t="shared" si="1"/>
@@ -2525,14 +2493,14 @@
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" s="4">
         <f t="shared" si="2"/>
         <v>0.43374999999999991</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2582,8 +2550,8 @@
       <c r="Q20">
         <v>0.8</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>30</v>
+      <c r="U20" s="2">
+        <v>16</v>
       </c>
       <c r="V20">
         <f t="shared" si="1"/>
@@ -2649,14 +2617,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL20">
+      <c r="AL20" s="4">
         <f t="shared" si="2"/>
         <v>0.26625000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>0.6</v>
@@ -2709,7 +2677,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>0.6</v>
@@ -2762,7 +2730,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>0.4</v>
@@ -2815,7 +2783,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>0.1</v>
@@ -2868,7 +2836,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>0.2</v>
@@ -2921,7 +2889,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>0.1</v>
@@ -2974,7 +2942,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>0.5</v>
@@ -3027,7 +2995,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>0.3</v>
@@ -3080,7 +3048,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>0.1</v>
@@ -3133,7 +3101,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>0.2</v>
@@ -3186,7 +3154,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>0.4</v>
@@ -3239,7 +3207,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B32">
         <v>0.4</v>
@@ -3292,7 +3260,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B33">
         <v>0.4</v>
@@ -3345,7 +3313,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B34">
         <v>0.2</v>
@@ -3398,7 +3366,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>0.2</v>
@@ -3451,57 +3419,57 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C37">
         <v>2</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D37">
         <v>3</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37">
         <v>4</v>
       </c>
-      <c r="G37" t="s">
+      <c r="F37">
         <v>5</v>
       </c>
-      <c r="H37" t="s">
+      <c r="G37">
         <v>6</v>
       </c>
-      <c r="I37" t="s">
+      <c r="H37">
         <v>7</v>
       </c>
-      <c r="J37" t="s">
+      <c r="I37">
         <v>8</v>
       </c>
-      <c r="K37" t="s">
+      <c r="J37">
         <v>9</v>
       </c>
-      <c r="L37" t="s">
+      <c r="K37">
         <v>10</v>
       </c>
-      <c r="M37" t="s">
+      <c r="L37">
         <v>11</v>
       </c>
-      <c r="N37" t="s">
+      <c r="M37">
         <v>12</v>
       </c>
-      <c r="O37" t="s">
+      <c r="N37">
         <v>13</v>
       </c>
-      <c r="P37" t="s">
+      <c r="O37">
         <v>14</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="P37">
         <v>15</v>
+      </c>
+      <c r="Q37">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3554,7 +3522,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B39">
         <v>0.6</v>
@@ -3607,7 +3575,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B40">
         <v>0.3</v>
@@ -3660,7 +3628,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B41">
         <v>0.5</v>
@@ -3713,7 +3681,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B42">
         <v>0.6</v>
@@ -3766,7 +3734,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>0.2</v>
@@ -3819,7 +3787,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B44">
         <v>0.6</v>
@@ -3872,7 +3840,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>0.6</v>
@@ -3925,7 +3893,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B46">
         <v>0.3</v>
@@ -3978,7 +3946,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B47">
         <v>0.6</v>
@@ -4031,7 +3999,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>0.5</v>
@@ -4084,7 +4052,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>0.6</v>
@@ -4137,7 +4105,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B50">
         <v>0.3</v>
@@ -4190,7 +4158,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>0.1</v>
@@ -4243,7 +4211,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B52">
         <v>0.3</v>
@@ -4296,7 +4264,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4349,57 +4317,57 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" t="s">
         <v>1</v>
       </c>
-      <c r="D55" t="s">
+      <c r="C55">
         <v>2</v>
       </c>
-      <c r="E55" t="s">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="F55" t="s">
+      <c r="E55">
         <v>4</v>
       </c>
-      <c r="G55" t="s">
+      <c r="F55">
         <v>5</v>
       </c>
-      <c r="H55" t="s">
+      <c r="G55">
         <v>6</v>
       </c>
-      <c r="I55" t="s">
+      <c r="H55">
         <v>7</v>
       </c>
-      <c r="J55" t="s">
+      <c r="I55">
         <v>8</v>
       </c>
-      <c r="K55" t="s">
+      <c r="J55">
         <v>9</v>
       </c>
-      <c r="L55" t="s">
+      <c r="K55">
         <v>10</v>
       </c>
-      <c r="M55" t="s">
+      <c r="L55">
         <v>11</v>
       </c>
-      <c r="N55" t="s">
+      <c r="M55">
         <v>12</v>
       </c>
-      <c r="O55" t="s">
+      <c r="N55">
         <v>13</v>
       </c>
-      <c r="P55" t="s">
+      <c r="O55">
         <v>14</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="P55">
         <v>15</v>
+      </c>
+      <c r="Q55">
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4452,7 +4420,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B57">
         <v>0.3</v>
@@ -4505,7 +4473,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B58">
         <v>0.3</v>
@@ -4558,7 +4526,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B59">
         <v>0.2</v>
@@ -4611,7 +4579,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B60">
         <v>0.6</v>
@@ -4664,7 +4632,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B61">
         <v>0.5</v>
@@ -4717,7 +4685,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B62">
         <v>0.5</v>
@@ -4770,7 +4738,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B63">
         <v>0.5</v>
@@ -4823,7 +4791,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B64">
         <v>0.6</v>
@@ -4876,7 +4844,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B65">
         <v>0.3</v>
@@ -4929,7 +4897,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B66">
         <v>0.8</v>
@@ -4982,7 +4950,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B67">
         <v>0.3</v>
@@ -5035,7 +5003,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B68">
         <v>0.8</v>
@@ -5088,7 +5056,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B69">
         <v>0.6</v>
@@ -5141,7 +5109,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B70">
         <v>0.4</v>
@@ -5194,7 +5162,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B71">
         <v>0.5</v>
@@ -5247,57 +5215,57 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" t="s">
         <v>1</v>
       </c>
-      <c r="D73" t="s">
+      <c r="C73">
         <v>2</v>
       </c>
-      <c r="E73" t="s">
+      <c r="D73">
         <v>3</v>
       </c>
-      <c r="F73" t="s">
+      <c r="E73">
         <v>4</v>
       </c>
-      <c r="G73" t="s">
+      <c r="F73">
         <v>5</v>
       </c>
-      <c r="H73" t="s">
+      <c r="G73">
         <v>6</v>
       </c>
-      <c r="I73" t="s">
+      <c r="H73">
         <v>7</v>
       </c>
-      <c r="J73" t="s">
+      <c r="I73">
         <v>8</v>
       </c>
-      <c r="K73" t="s">
+      <c r="J73">
         <v>9</v>
       </c>
-      <c r="L73" t="s">
+      <c r="K73">
         <v>10</v>
       </c>
-      <c r="M73" t="s">
+      <c r="L73">
         <v>11</v>
       </c>
-      <c r="N73" t="s">
+      <c r="M73">
         <v>12</v>
       </c>
-      <c r="O73" t="s">
+      <c r="N73">
         <v>13</v>
       </c>
-      <c r="P73" t="s">
+      <c r="O73">
         <v>14</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="P73">
         <v>15</v>
+      </c>
+      <c r="Q73">
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -5350,7 +5318,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B75">
         <v>0.2</v>
@@ -5403,7 +5371,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B76">
         <v>0.5</v>
@@ -5456,7 +5424,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B77">
         <v>0.2</v>
@@ -5509,7 +5477,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B78">
         <v>0.5</v>
@@ -5562,7 +5530,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B79">
         <v>0.5</v>
@@ -5615,7 +5583,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B80">
         <v>0.3</v>
@@ -5668,7 +5636,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B81">
         <v>0.6</v>
@@ -5721,7 +5689,7 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B82">
         <v>0.3</v>
@@ -5774,7 +5742,7 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B83">
         <v>0.8</v>
@@ -5827,7 +5795,7 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B84">
         <v>0.6</v>
@@ -5880,7 +5848,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B85">
         <v>0.5</v>
@@ -5933,7 +5901,7 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B86">
         <v>0.8</v>
@@ -5986,7 +5954,7 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -6039,7 +6007,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B88">
         <v>0.6</v>
@@ -6092,7 +6060,7 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B89">
         <v>0.4</v>
